--- a/data/trans_orig/P33_1_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_2023-Clase-trans_orig.xlsx
@@ -579,12 +579,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 7,09</t>
+          <t>6,92; 7,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,9; 7,07</t>
+          <t>6,9; 7,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -629,12 +629,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,19</t>
+          <t>7,01; 7,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,86; 7,06</t>
+          <t>6,87; 7,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 7,76</t>
+          <t>6,9; 7,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,8; 7,08</t>
+          <t>6,81; 7,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,91; 7,73</t>
+          <t>6,9; 7,67</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,01; 7,19</t>
+          <t>7,02; 7,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,36; 6,95</t>
+          <t>6,39; 6,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 7,04</t>
+          <t>6,64; 7,05</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,01; 7,24</t>
+          <t>7,01; 7,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,46; 7,91</t>
+          <t>7,46; 7,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,24; 7,42</t>
+          <t>7,23; 7,42</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,1; 7,35</t>
+          <t>7,09; 7,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,18</t>
+          <t>6,97; 7,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P33_1_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_2023-Clase-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según las horas que duerme habitualmente al día y entre semana</t>
+          <t>Número medio de horas que duerme habitualmente al día entre semana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -796,7 +796,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
